--- a/concepts/greenhouse-gases/input.xlsx
+++ b/concepts/greenhouse-gases/input.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="104">
   <si>
     <t>Pattern name (optional)</t>
   </si>
@@ -72,19 +72,25 @@
     <t>greenhouse</t>
   </si>
   <si>
-    <t>LEMMA</t>
-  </si>
-  <si>
     <t>gas</t>
   </si>
   <si>
     <t>GHG</t>
   </si>
   <si>
+    <t>gases</t>
+  </si>
+  <si>
+    <t>GHGs</t>
+  </si>
+  <si>
     <t>Emissions</t>
   </si>
   <si>
     <t>emissions</t>
+  </si>
+  <si>
+    <t>emission</t>
   </si>
   <si>
     <t>Carbon dioxide</t>
@@ -120,6 +126,9 @@
     <t>N2O</t>
   </si>
   <si>
+    <t>N20</t>
+  </si>
+  <si>
     <t>Ozone</t>
   </si>
   <si>
@@ -127,6 +136,33 @@
   </si>
   <si>
     <t>O3</t>
+  </si>
+  <si>
+    <t>Ozone-Depleting Substances</t>
+  </si>
+  <si>
+    <t>ORTH</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>OP</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>depleting</t>
+  </si>
+  <si>
+    <t>LEMMA</t>
+  </si>
+  <si>
+    <t>substance</t>
+  </si>
+  <si>
+    <t>ODS</t>
   </si>
   <si>
     <t>Chlorofluorocarbons</t>
@@ -144,7 +180,7 @@
     <t>Hydrochlorofluorocarbons</t>
   </si>
   <si>
-    <t>hydrochlorfluorocarbon</t>
+    <t>hydrochlorofluorocarbon</t>
   </si>
   <si>
     <t>HCFCs</t>
@@ -186,6 +222,15 @@
     <t>hexafluoride</t>
   </si>
   <si>
+    <t>SF</t>
+  </si>
+  <si>
+    <t>SF6</t>
+  </si>
+  <si>
+    <t>SFs</t>
+  </si>
+  <si>
     <t>Nitrogen trifluoride</t>
   </si>
   <si>
@@ -193,6 +238,15 @@
   </si>
   <si>
     <t>trifluoride</t>
+  </si>
+  <si>
+    <t>NF</t>
+  </si>
+  <si>
+    <t>NF3</t>
+  </si>
+  <si>
+    <t>NFs</t>
   </si>
   <si>
     <r>
@@ -227,9 +281,6 @@
       </rPr>
       <t>Rule-based matcher explorer.</t>
     </r>
-  </si>
-  <si>
-    <t>ORTH</t>
   </si>
   <si>
     <t>TEXT</t>
@@ -299,9 +350,6 @@
   </si>
   <si>
     <t>LEMMA_IN</t>
-  </si>
-  <si>
-    <t>OP</t>
   </si>
   <si>
     <t>ENT_TYPE</t>
@@ -816,10 +864,10 @@
         <v>18</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="I3" s="11"/>
       <c r="K3" s="11"/>
@@ -854,10 +902,10 @@
         <v>16</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F4" s="11" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G4" s="11"/>
       <c r="I4" s="11"/>
@@ -886,20 +934,24 @@
         <v>16</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="C5" s="9"/>
       <c r="D5" s="9" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F5" s="10" t="s">
-        <v>23</v>
+      <c r="F5" s="11" t="s">
+        <v>18</v>
       </c>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
+      <c r="G5" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>21</v>
+      </c>
       <c r="I5" s="11"/>
       <c r="K5" s="11"/>
       <c r="M5" s="11"/>
@@ -926,24 +978,20 @@
         <v>16</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="C6" s="9"/>
       <c r="D6" s="9" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="11" t="s">
-        <v>25</v>
+      <c r="F6" s="10" t="s">
+        <v>22</v>
       </c>
-      <c r="G6" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10"/>
       <c r="I6" s="11"/>
       <c r="K6" s="11"/>
       <c r="M6" s="11"/>
@@ -970,19 +1018,20 @@
         <v>16</v>
       </c>
       <c r="B7" s="9" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F7" s="13" t="s">
-        <v>27</v>
+      <c r="F7" s="10" t="s">
+        <v>24</v>
       </c>
-      <c r="G7" s="11"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="10"/>
       <c r="I7" s="11"/>
       <c r="K7" s="11"/>
       <c r="M7" s="11"/>
@@ -1009,19 +1058,20 @@
         <v>16</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
-      <c r="C8" s="14"/>
+      <c r="C8" s="9"/>
       <c r="D8" s="9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F8" s="11" t="s">
-        <v>29</v>
+      <c r="F8" s="10" t="s">
+        <v>25</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="10"/>
+      <c r="H8" s="10"/>
       <c r="I8" s="11"/>
       <c r="K8" s="11"/>
       <c r="M8" s="11"/>
@@ -1048,19 +1098,24 @@
         <v>16</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
-      <c r="C9" s="14"/>
+      <c r="C9" s="9"/>
       <c r="D9" s="9" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>28</v>
+      </c>
       <c r="I9" s="11"/>
       <c r="K9" s="11"/>
       <c r="M9" s="11"/>
@@ -1087,22 +1142,19 @@
         <v>16</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
-      <c r="C10" s="14"/>
+      <c r="C10" s="9"/>
       <c r="D10" s="9" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F10" s="11" t="s">
-        <v>32</v>
+      <c r="F10" s="13" t="s">
+        <v>29</v>
       </c>
       <c r="G10" s="11"/>
-      <c r="H10" s="10" t="s">
-        <v>33</v>
-      </c>
       <c r="I10" s="11"/>
       <c r="K10" s="11"/>
       <c r="M10" s="11"/>
@@ -1129,17 +1181,17 @@
         <v>16</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="C11" s="14"/>
       <c r="D11" s="9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="G11" s="11"/>
       <c r="I11" s="11"/>
@@ -1168,17 +1220,17 @@
         <v>16</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C12" s="14"/>
       <c r="D12" s="9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="G12" s="11"/>
       <c r="I12" s="11"/>
@@ -1207,19 +1259,22 @@
         <v>16</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="14"/>
       <c r="D13" s="9" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>17</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="G13" s="11"/>
+      <c r="H13" s="10" t="s">
+        <v>35</v>
+      </c>
       <c r="I13" s="11"/>
       <c r="K13" s="11"/>
       <c r="M13" s="11"/>
@@ -1246,17 +1301,17 @@
         <v>16</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C14" s="14"/>
       <c r="D14" s="9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E14" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="F14" s="10" t="s">
-        <v>39</v>
+      <c r="F14" s="11" t="s">
+        <v>36</v>
       </c>
       <c r="G14" s="11"/>
       <c r="I14" s="11"/>
@@ -1285,17 +1340,17 @@
         <v>16</v>
       </c>
       <c r="B15" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C15" s="14"/>
       <c r="D15" s="9" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="E15" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="F15" s="11" t="s">
-        <v>41</v>
+      <c r="F15" s="10" t="s">
+        <v>37</v>
       </c>
       <c r="G15" s="11"/>
       <c r="I15" s="11"/>
@@ -1324,17 +1379,17 @@
         <v>16</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C16" s="14"/>
       <c r="D16" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="G16" s="11"/>
       <c r="I16" s="11"/>
@@ -1363,17 +1418,17 @@
         <v>16</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C17" s="14"/>
       <c r="D17" s="9" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
-      <c r="F17" s="10" t="s">
-        <v>45</v>
+      <c r="F17" s="11" t="s">
+        <v>40</v>
       </c>
       <c r="G17" s="11"/>
       <c r="I17" s="11"/>
@@ -1402,24 +1457,44 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="14"/>
       <c r="D18" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G18" s="11"/>
+      <c r="I18" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J18" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="N18" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="E18" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="F18" s="11" t="s">
+      <c r="O18" s="11"/>
+      <c r="Q18" s="10" t="s">
         <v>47</v>
       </c>
-      <c r="G18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="Q18" s="11"/>
+      <c r="R18" s="10" t="s">
+        <v>48</v>
+      </c>
       <c r="S18" s="11"/>
       <c r="U18" s="11"/>
       <c r="W18" s="11"/>
@@ -1441,16 +1516,16 @@
         <v>16</v>
       </c>
       <c r="B19" s="9" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C19" s="14"/>
       <c r="D19" s="9" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>49</v>
       </c>
       <c r="G19" s="11"/>
@@ -1487,9 +1562,9 @@
         <v>50</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>51</v>
       </c>
       <c r="G20" s="11"/>
@@ -1526,7 +1601,7 @@
         <v>52</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="F21" s="11" t="s">
         <v>53</v>
@@ -1558,24 +1633,19 @@
         <v>16</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="C22" s="14"/>
       <c r="D22" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>17</v>
+        <v>42</v>
       </c>
-      <c r="F22" s="11" t="s">
-        <v>55</v>
+      <c r="F22" s="10" t="s">
+        <v>52</v>
       </c>
-      <c r="G22" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>56</v>
-      </c>
+      <c r="G22" s="11"/>
       <c r="I22" s="11"/>
       <c r="K22" s="11"/>
       <c r="M22" s="11"/>
@@ -1602,24 +1672,19 @@
         <v>16</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="14"/>
       <c r="D23" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
-      <c r="F23" s="11" t="s">
-        <v>58</v>
+      <c r="F23" s="10" t="s">
+        <v>55</v>
       </c>
-      <c r="G23" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>59</v>
-      </c>
+      <c r="G23" s="11"/>
       <c r="I23" s="11"/>
       <c r="K23" s="11"/>
       <c r="M23" s="11"/>
@@ -1642,11 +1707,22 @@
       <c r="AJ23" s="12"/>
     </row>
     <row r="24">
-      <c r="A24" s="8"/>
-      <c r="B24" s="14"/>
+      <c r="A24" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B24" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C24" s="14"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="11"/>
+      <c r="D24" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>57</v>
+      </c>
       <c r="G24" s="11"/>
       <c r="I24" s="11"/>
       <c r="K24" s="11"/>
@@ -1670,11 +1746,22 @@
       <c r="AJ24" s="12"/>
     </row>
     <row r="25">
-      <c r="A25" s="8"/>
-      <c r="B25" s="14"/>
+      <c r="A25" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>54</v>
+      </c>
       <c r="C25" s="14"/>
-      <c r="D25" s="14"/>
-      <c r="E25" s="11"/>
+      <c r="D25" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>56</v>
+      </c>
       <c r="G25" s="11"/>
       <c r="I25" s="11"/>
       <c r="K25" s="11"/>
@@ -1698,11 +1785,22 @@
       <c r="AJ25" s="12"/>
     </row>
     <row r="26">
-      <c r="A26" s="15"/>
-      <c r="B26" s="14"/>
+      <c r="A26" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C26" s="14"/>
-      <c r="D26" s="14"/>
-      <c r="E26" s="11"/>
+      <c r="D26" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F26" s="11" t="s">
+        <v>59</v>
+      </c>
       <c r="G26" s="11"/>
       <c r="I26" s="11"/>
       <c r="K26" s="11"/>
@@ -1726,11 +1824,22 @@
       <c r="AJ26" s="12"/>
     </row>
     <row r="27">
-      <c r="A27" s="15"/>
-      <c r="B27" s="14"/>
+      <c r="A27" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C27" s="14"/>
-      <c r="D27" s="14"/>
-      <c r="E27" s="11"/>
+      <c r="D27" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F27" s="11" t="s">
+        <v>61</v>
+      </c>
       <c r="G27" s="11"/>
       <c r="I27" s="11"/>
       <c r="K27" s="11"/>
@@ -1754,11 +1863,22 @@
       <c r="AJ27" s="12"/>
     </row>
     <row r="28">
-      <c r="A28" s="15"/>
-      <c r="B28" s="14"/>
+      <c r="A28" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>58</v>
+      </c>
       <c r="C28" s="14"/>
-      <c r="D28" s="14"/>
-      <c r="E28" s="11"/>
+      <c r="D28" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>60</v>
+      </c>
       <c r="G28" s="11"/>
       <c r="I28" s="11"/>
       <c r="K28" s="11"/>
@@ -1782,11 +1902,22 @@
       <c r="AJ28" s="12"/>
     </row>
     <row r="29">
-      <c r="A29" s="15"/>
-      <c r="B29" s="14"/>
+      <c r="A29" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C29" s="14"/>
-      <c r="D29" s="14"/>
-      <c r="E29" s="11"/>
+      <c r="D29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F29" s="11" t="s">
+        <v>63</v>
+      </c>
       <c r="G29" s="11"/>
       <c r="I29" s="11"/>
       <c r="K29" s="11"/>
@@ -1810,11 +1941,22 @@
       <c r="AJ29" s="12"/>
     </row>
     <row r="30">
-      <c r="A30" s="15"/>
-      <c r="B30" s="14"/>
+      <c r="A30" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C30" s="14"/>
-      <c r="D30" s="14"/>
-      <c r="E30" s="11"/>
+      <c r="D30" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F30" s="11" t="s">
+        <v>65</v>
+      </c>
       <c r="G30" s="11"/>
       <c r="I30" s="11"/>
       <c r="K30" s="11"/>
@@ -1838,12 +1980,24 @@
       <c r="AJ30" s="12"/>
     </row>
     <row r="31">
-      <c r="A31" s="15"/>
-      <c r="B31" s="14"/>
+      <c r="A31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B31" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="C31" s="14"/>
-      <c r="D31" s="14"/>
-      <c r="E31" s="11"/>
-      <c r="G31" s="11"/>
+      <c r="D31" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
       <c r="I31" s="11"/>
       <c r="K31" s="11"/>
       <c r="M31" s="11"/>
@@ -1866,12 +2020,28 @@
       <c r="AJ31" s="12"/>
     </row>
     <row r="32">
-      <c r="A32" s="15"/>
-      <c r="B32" s="14"/>
+      <c r="A32" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B32" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C32" s="14"/>
-      <c r="D32" s="14"/>
-      <c r="E32" s="11"/>
-      <c r="G32" s="11"/>
+      <c r="D32" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F32" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>68</v>
+      </c>
       <c r="I32" s="11"/>
       <c r="K32" s="11"/>
       <c r="M32" s="11"/>
@@ -1894,12 +2064,24 @@
       <c r="AJ32" s="12"/>
     </row>
     <row r="33">
-      <c r="A33" s="15"/>
-      <c r="B33" s="14"/>
+      <c r="A33" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B33" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C33" s="14"/>
-      <c r="D33" s="14"/>
-      <c r="E33" s="11"/>
-      <c r="G33" s="11"/>
+      <c r="D33" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
       <c r="I33" s="11"/>
       <c r="K33" s="11"/>
       <c r="M33" s="11"/>
@@ -1922,12 +2104,24 @@
       <c r="AJ33" s="12"/>
     </row>
     <row r="34">
-      <c r="A34" s="15"/>
-      <c r="B34" s="14"/>
+      <c r="A34" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C34" s="14"/>
-      <c r="D34" s="14"/>
-      <c r="E34" s="11"/>
-      <c r="G34" s="11"/>
+      <c r="D34" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
       <c r="I34" s="11"/>
       <c r="K34" s="11"/>
       <c r="M34" s="11"/>
@@ -1950,12 +2144,24 @@
       <c r="AJ34" s="12"/>
     </row>
     <row r="35">
-      <c r="A35" s="15"/>
-      <c r="B35" s="14"/>
+      <c r="A35" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B35" s="9" t="s">
+        <v>66</v>
+      </c>
       <c r="C35" s="14"/>
-      <c r="D35" s="14"/>
-      <c r="E35" s="11"/>
-      <c r="G35" s="11"/>
+      <c r="D35" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
       <c r="I35" s="11"/>
       <c r="K35" s="11"/>
       <c r="M35" s="11"/>
@@ -1978,12 +2184,28 @@
       <c r="AJ35" s="12"/>
     </row>
     <row r="36">
-      <c r="A36" s="15"/>
-      <c r="B36" s="14"/>
+      <c r="A36" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B36" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C36" s="14"/>
-      <c r="D36" s="14"/>
-      <c r="E36" s="11"/>
-      <c r="G36" s="11"/>
+      <c r="D36" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>74</v>
+      </c>
       <c r="I36" s="11"/>
       <c r="K36" s="11"/>
       <c r="M36" s="11"/>
@@ -2006,11 +2228,22 @@
       <c r="AJ36" s="12"/>
     </row>
     <row r="37">
-      <c r="A37" s="15"/>
-      <c r="B37" s="14"/>
+      <c r="A37" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="11"/>
+      <c r="D37" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>75</v>
+      </c>
       <c r="G37" s="11"/>
       <c r="I37" s="11"/>
       <c r="K37" s="11"/>
@@ -2034,11 +2267,22 @@
       <c r="AJ37" s="12"/>
     </row>
     <row r="38">
-      <c r="A38" s="15"/>
-      <c r="B38" s="14"/>
+      <c r="A38" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C38" s="14"/>
-      <c r="D38" s="14"/>
-      <c r="E38" s="11"/>
+      <c r="D38" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>76</v>
+      </c>
       <c r="G38" s="11"/>
       <c r="I38" s="11"/>
       <c r="K38" s="11"/>
@@ -2062,11 +2306,22 @@
       <c r="AJ38" s="12"/>
     </row>
     <row r="39">
-      <c r="A39" s="15"/>
-      <c r="B39" s="14"/>
+      <c r="A39" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>72</v>
+      </c>
       <c r="C39" s="14"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="11"/>
+      <c r="D39" s="9" t="s">
+        <v>72</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>77</v>
+      </c>
       <c r="G39" s="11"/>
       <c r="I39" s="11"/>
       <c r="K39" s="11"/>
@@ -29025,6 +29280,398 @@
       <c r="AI1001" s="12"/>
       <c r="AJ1001" s="12"/>
     </row>
+    <row r="1002">
+      <c r="A1002" s="15"/>
+      <c r="B1002" s="14"/>
+      <c r="C1002" s="14"/>
+      <c r="D1002" s="14"/>
+      <c r="E1002" s="11"/>
+      <c r="G1002" s="11"/>
+      <c r="I1002" s="11"/>
+      <c r="K1002" s="11"/>
+      <c r="M1002" s="11"/>
+      <c r="O1002" s="11"/>
+      <c r="Q1002" s="11"/>
+      <c r="S1002" s="11"/>
+      <c r="U1002" s="11"/>
+      <c r="W1002" s="11"/>
+      <c r="Y1002" s="12"/>
+      <c r="Z1002" s="12"/>
+      <c r="AA1002" s="12"/>
+      <c r="AB1002" s="12"/>
+      <c r="AC1002" s="12"/>
+      <c r="AD1002" s="12"/>
+      <c r="AE1002" s="12"/>
+      <c r="AF1002" s="12"/>
+      <c r="AG1002" s="12"/>
+      <c r="AH1002" s="12"/>
+      <c r="AI1002" s="12"/>
+      <c r="AJ1002" s="12"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="15"/>
+      <c r="B1003" s="14"/>
+      <c r="C1003" s="14"/>
+      <c r="D1003" s="14"/>
+      <c r="E1003" s="11"/>
+      <c r="G1003" s="11"/>
+      <c r="I1003" s="11"/>
+      <c r="K1003" s="11"/>
+      <c r="M1003" s="11"/>
+      <c r="O1003" s="11"/>
+      <c r="Q1003" s="11"/>
+      <c r="S1003" s="11"/>
+      <c r="U1003" s="11"/>
+      <c r="W1003" s="11"/>
+      <c r="Y1003" s="12"/>
+      <c r="Z1003" s="12"/>
+      <c r="AA1003" s="12"/>
+      <c r="AB1003" s="12"/>
+      <c r="AC1003" s="12"/>
+      <c r="AD1003" s="12"/>
+      <c r="AE1003" s="12"/>
+      <c r="AF1003" s="12"/>
+      <c r="AG1003" s="12"/>
+      <c r="AH1003" s="12"/>
+      <c r="AI1003" s="12"/>
+      <c r="AJ1003" s="12"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="15"/>
+      <c r="B1004" s="14"/>
+      <c r="C1004" s="14"/>
+      <c r="D1004" s="14"/>
+      <c r="E1004" s="11"/>
+      <c r="G1004" s="11"/>
+      <c r="I1004" s="11"/>
+      <c r="K1004" s="11"/>
+      <c r="M1004" s="11"/>
+      <c r="O1004" s="11"/>
+      <c r="Q1004" s="11"/>
+      <c r="S1004" s="11"/>
+      <c r="U1004" s="11"/>
+      <c r="W1004" s="11"/>
+      <c r="Y1004" s="12"/>
+      <c r="Z1004" s="12"/>
+      <c r="AA1004" s="12"/>
+      <c r="AB1004" s="12"/>
+      <c r="AC1004" s="12"/>
+      <c r="AD1004" s="12"/>
+      <c r="AE1004" s="12"/>
+      <c r="AF1004" s="12"/>
+      <c r="AG1004" s="12"/>
+      <c r="AH1004" s="12"/>
+      <c r="AI1004" s="12"/>
+      <c r="AJ1004" s="12"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="15"/>
+      <c r="B1005" s="14"/>
+      <c r="C1005" s="14"/>
+      <c r="D1005" s="14"/>
+      <c r="E1005" s="11"/>
+      <c r="G1005" s="11"/>
+      <c r="I1005" s="11"/>
+      <c r="K1005" s="11"/>
+      <c r="M1005" s="11"/>
+      <c r="O1005" s="11"/>
+      <c r="Q1005" s="11"/>
+      <c r="S1005" s="11"/>
+      <c r="U1005" s="11"/>
+      <c r="W1005" s="11"/>
+      <c r="Y1005" s="12"/>
+      <c r="Z1005" s="12"/>
+      <c r="AA1005" s="12"/>
+      <c r="AB1005" s="12"/>
+      <c r="AC1005" s="12"/>
+      <c r="AD1005" s="12"/>
+      <c r="AE1005" s="12"/>
+      <c r="AF1005" s="12"/>
+      <c r="AG1005" s="12"/>
+      <c r="AH1005" s="12"/>
+      <c r="AI1005" s="12"/>
+      <c r="AJ1005" s="12"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="15"/>
+      <c r="B1006" s="14"/>
+      <c r="C1006" s="14"/>
+      <c r="D1006" s="14"/>
+      <c r="E1006" s="11"/>
+      <c r="G1006" s="11"/>
+      <c r="I1006" s="11"/>
+      <c r="K1006" s="11"/>
+      <c r="M1006" s="11"/>
+      <c r="O1006" s="11"/>
+      <c r="Q1006" s="11"/>
+      <c r="S1006" s="11"/>
+      <c r="U1006" s="11"/>
+      <c r="W1006" s="11"/>
+      <c r="Y1006" s="12"/>
+      <c r="Z1006" s="12"/>
+      <c r="AA1006" s="12"/>
+      <c r="AB1006" s="12"/>
+      <c r="AC1006" s="12"/>
+      <c r="AD1006" s="12"/>
+      <c r="AE1006" s="12"/>
+      <c r="AF1006" s="12"/>
+      <c r="AG1006" s="12"/>
+      <c r="AH1006" s="12"/>
+      <c r="AI1006" s="12"/>
+      <c r="AJ1006" s="12"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="15"/>
+      <c r="B1007" s="14"/>
+      <c r="C1007" s="14"/>
+      <c r="D1007" s="14"/>
+      <c r="E1007" s="11"/>
+      <c r="G1007" s="11"/>
+      <c r="I1007" s="11"/>
+      <c r="K1007" s="11"/>
+      <c r="M1007" s="11"/>
+      <c r="O1007" s="11"/>
+      <c r="Q1007" s="11"/>
+      <c r="S1007" s="11"/>
+      <c r="U1007" s="11"/>
+      <c r="W1007" s="11"/>
+      <c r="Y1007" s="12"/>
+      <c r="Z1007" s="12"/>
+      <c r="AA1007" s="12"/>
+      <c r="AB1007" s="12"/>
+      <c r="AC1007" s="12"/>
+      <c r="AD1007" s="12"/>
+      <c r="AE1007" s="12"/>
+      <c r="AF1007" s="12"/>
+      <c r="AG1007" s="12"/>
+      <c r="AH1007" s="12"/>
+      <c r="AI1007" s="12"/>
+      <c r="AJ1007" s="12"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="15"/>
+      <c r="B1008" s="14"/>
+      <c r="C1008" s="14"/>
+      <c r="D1008" s="14"/>
+      <c r="E1008" s="11"/>
+      <c r="G1008" s="11"/>
+      <c r="I1008" s="11"/>
+      <c r="K1008" s="11"/>
+      <c r="M1008" s="11"/>
+      <c r="O1008" s="11"/>
+      <c r="Q1008" s="11"/>
+      <c r="S1008" s="11"/>
+      <c r="U1008" s="11"/>
+      <c r="W1008" s="11"/>
+      <c r="Y1008" s="12"/>
+      <c r="Z1008" s="12"/>
+      <c r="AA1008" s="12"/>
+      <c r="AB1008" s="12"/>
+      <c r="AC1008" s="12"/>
+      <c r="AD1008" s="12"/>
+      <c r="AE1008" s="12"/>
+      <c r="AF1008" s="12"/>
+      <c r="AG1008" s="12"/>
+      <c r="AH1008" s="12"/>
+      <c r="AI1008" s="12"/>
+      <c r="AJ1008" s="12"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="15"/>
+      <c r="B1009" s="14"/>
+      <c r="C1009" s="14"/>
+      <c r="D1009" s="14"/>
+      <c r="E1009" s="11"/>
+      <c r="G1009" s="11"/>
+      <c r="I1009" s="11"/>
+      <c r="K1009" s="11"/>
+      <c r="M1009" s="11"/>
+      <c r="O1009" s="11"/>
+      <c r="Q1009" s="11"/>
+      <c r="S1009" s="11"/>
+      <c r="U1009" s="11"/>
+      <c r="W1009" s="11"/>
+      <c r="Y1009" s="12"/>
+      <c r="Z1009" s="12"/>
+      <c r="AA1009" s="12"/>
+      <c r="AB1009" s="12"/>
+      <c r="AC1009" s="12"/>
+      <c r="AD1009" s="12"/>
+      <c r="AE1009" s="12"/>
+      <c r="AF1009" s="12"/>
+      <c r="AG1009" s="12"/>
+      <c r="AH1009" s="12"/>
+      <c r="AI1009" s="12"/>
+      <c r="AJ1009" s="12"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="15"/>
+      <c r="B1010" s="14"/>
+      <c r="C1010" s="14"/>
+      <c r="D1010" s="14"/>
+      <c r="E1010" s="11"/>
+      <c r="G1010" s="11"/>
+      <c r="I1010" s="11"/>
+      <c r="K1010" s="11"/>
+      <c r="M1010" s="11"/>
+      <c r="O1010" s="11"/>
+      <c r="Q1010" s="11"/>
+      <c r="S1010" s="11"/>
+      <c r="U1010" s="11"/>
+      <c r="W1010" s="11"/>
+      <c r="Y1010" s="12"/>
+      <c r="Z1010" s="12"/>
+      <c r="AA1010" s="12"/>
+      <c r="AB1010" s="12"/>
+      <c r="AC1010" s="12"/>
+      <c r="AD1010" s="12"/>
+      <c r="AE1010" s="12"/>
+      <c r="AF1010" s="12"/>
+      <c r="AG1010" s="12"/>
+      <c r="AH1010" s="12"/>
+      <c r="AI1010" s="12"/>
+      <c r="AJ1010" s="12"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="15"/>
+      <c r="B1011" s="14"/>
+      <c r="C1011" s="14"/>
+      <c r="D1011" s="14"/>
+      <c r="E1011" s="11"/>
+      <c r="G1011" s="11"/>
+      <c r="I1011" s="11"/>
+      <c r="K1011" s="11"/>
+      <c r="M1011" s="11"/>
+      <c r="O1011" s="11"/>
+      <c r="Q1011" s="11"/>
+      <c r="S1011" s="11"/>
+      <c r="U1011" s="11"/>
+      <c r="W1011" s="11"/>
+      <c r="Y1011" s="12"/>
+      <c r="Z1011" s="12"/>
+      <c r="AA1011" s="12"/>
+      <c r="AB1011" s="12"/>
+      <c r="AC1011" s="12"/>
+      <c r="AD1011" s="12"/>
+      <c r="AE1011" s="12"/>
+      <c r="AF1011" s="12"/>
+      <c r="AG1011" s="12"/>
+      <c r="AH1011" s="12"/>
+      <c r="AI1011" s="12"/>
+      <c r="AJ1011" s="12"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="15"/>
+      <c r="B1012" s="14"/>
+      <c r="C1012" s="14"/>
+      <c r="D1012" s="14"/>
+      <c r="E1012" s="11"/>
+      <c r="G1012" s="11"/>
+      <c r="I1012" s="11"/>
+      <c r="K1012" s="11"/>
+      <c r="M1012" s="11"/>
+      <c r="O1012" s="11"/>
+      <c r="Q1012" s="11"/>
+      <c r="S1012" s="11"/>
+      <c r="U1012" s="11"/>
+      <c r="W1012" s="11"/>
+      <c r="Y1012" s="12"/>
+      <c r="Z1012" s="12"/>
+      <c r="AA1012" s="12"/>
+      <c r="AB1012" s="12"/>
+      <c r="AC1012" s="12"/>
+      <c r="AD1012" s="12"/>
+      <c r="AE1012" s="12"/>
+      <c r="AF1012" s="12"/>
+      <c r="AG1012" s="12"/>
+      <c r="AH1012" s="12"/>
+      <c r="AI1012" s="12"/>
+      <c r="AJ1012" s="12"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="15"/>
+      <c r="B1013" s="14"/>
+      <c r="C1013" s="14"/>
+      <c r="D1013" s="14"/>
+      <c r="E1013" s="11"/>
+      <c r="G1013" s="11"/>
+      <c r="I1013" s="11"/>
+      <c r="K1013" s="11"/>
+      <c r="M1013" s="11"/>
+      <c r="O1013" s="11"/>
+      <c r="Q1013" s="11"/>
+      <c r="S1013" s="11"/>
+      <c r="U1013" s="11"/>
+      <c r="W1013" s="11"/>
+      <c r="Y1013" s="12"/>
+      <c r="Z1013" s="12"/>
+      <c r="AA1013" s="12"/>
+      <c r="AB1013" s="12"/>
+      <c r="AC1013" s="12"/>
+      <c r="AD1013" s="12"/>
+      <c r="AE1013" s="12"/>
+      <c r="AF1013" s="12"/>
+      <c r="AG1013" s="12"/>
+      <c r="AH1013" s="12"/>
+      <c r="AI1013" s="12"/>
+      <c r="AJ1013" s="12"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="15"/>
+      <c r="B1014" s="14"/>
+      <c r="C1014" s="14"/>
+      <c r="D1014" s="14"/>
+      <c r="E1014" s="11"/>
+      <c r="G1014" s="11"/>
+      <c r="I1014" s="11"/>
+      <c r="K1014" s="11"/>
+      <c r="M1014" s="11"/>
+      <c r="O1014" s="11"/>
+      <c r="Q1014" s="11"/>
+      <c r="S1014" s="11"/>
+      <c r="U1014" s="11"/>
+      <c r="W1014" s="11"/>
+      <c r="Y1014" s="12"/>
+      <c r="Z1014" s="12"/>
+      <c r="AA1014" s="12"/>
+      <c r="AB1014" s="12"/>
+      <c r="AC1014" s="12"/>
+      <c r="AD1014" s="12"/>
+      <c r="AE1014" s="12"/>
+      <c r="AF1014" s="12"/>
+      <c r="AG1014" s="12"/>
+      <c r="AH1014" s="12"/>
+      <c r="AI1014" s="12"/>
+      <c r="AJ1014" s="12"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="15"/>
+      <c r="B1015" s="14"/>
+      <c r="C1015" s="14"/>
+      <c r="D1015" s="14"/>
+      <c r="E1015" s="11"/>
+      <c r="G1015" s="11"/>
+      <c r="I1015" s="11"/>
+      <c r="K1015" s="11"/>
+      <c r="M1015" s="11"/>
+      <c r="O1015" s="11"/>
+      <c r="Q1015" s="11"/>
+      <c r="S1015" s="11"/>
+      <c r="U1015" s="11"/>
+      <c r="W1015" s="11"/>
+      <c r="Y1015" s="12"/>
+      <c r="Z1015" s="12"/>
+      <c r="AA1015" s="12"/>
+      <c r="AB1015" s="12"/>
+      <c r="AC1015" s="12"/>
+      <c r="AD1015" s="12"/>
+      <c r="AE1015" s="12"/>
+      <c r="AF1015" s="12"/>
+      <c r="AG1015" s="12"/>
+      <c r="AH1015" s="12"/>
+      <c r="AI1015" s="12"/>
+      <c r="AJ1015" s="12"/>
+    </row>
   </sheetData>
   <mergeCells count="12">
     <mergeCell ref="Q1:T1"/>
@@ -29041,7 +29688,7 @@
     <mergeCell ref="M1:P1"/>
   </mergeCells>
   <dataValidations>
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E1001 G3:G1001 I3:I1001 K3:K1001 M3:M1001 O3:O1001 Q3:Q1001 S3:S1001 U3:U1001 W3:W1001 Y3:Y1001 AA3:AA1001 AC3:AC1001 AE3:AE1001 AG3:AG1001 AI3:AI1001">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="E3:E1015 G3:G1015 I3:I1015 K3:K1015 M3:M1015 O3:O1015 Q3:Q1015 S3:S1015 U3:U1015 W3:W1015 Y3:Y1015 AA3:AA1015 AC3:AC1015 AE3:AE1015 AG3:AG1015 AI3:AI1015">
       <formula1>'Rule types'!$A$3:$A$100</formula1>
     </dataValidation>
   </dataValidations>
@@ -29061,22 +29708,22 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="16" t="s">
-        <v>60</v>
+        <v>78</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>61</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>62</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>63</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6">
@@ -29086,122 +29733,122 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>64</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>65</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>66</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>67</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>68</v>
+        <v>85</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>69</v>
+        <v>86</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>70</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>71</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="10" t="s">
-        <v>72</v>
+        <v>89</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>75</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>77</v>
+        <v>94</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="10" t="s">
-        <v>78</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="10" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="10" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="10" t="s">
-        <v>81</v>
+        <v>98</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="10" t="s">
-        <v>82</v>
+        <v>99</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="10" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="10" t="s">
-        <v>83</v>
+        <v>100</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="10" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="10" t="s">
-        <v>85</v>
+        <v>44</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="10" t="s">
-        <v>86</v>
+        <v>102</v>
       </c>
     </row>
   </sheetData>
@@ -29227,7 +29874,7 @@
   <sheetData>
     <row r="1">
       <c r="A1" s="17" t="s">
-        <v>87</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
